--- a/earlywarning-pom/Document/test/RETAIL/test completamento br.xlsx
+++ b/earlywarning-pom/Document/test/RETAIL/test completamento br.xlsx
@@ -1184,11 +1184,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BV35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/earlywarning-pom/Document/test/RETAIL/test completamento br.xlsx
+++ b/earlywarning-pom/Document/test/RETAIL/test completamento br.xlsx
@@ -1194,10 +1194,10 @@
   <dimension ref="A1:BW35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="T20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="T14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U35" sqref="U35"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/earlywarning-pom/Document/test/RETAIL/test completamento br.xlsx
+++ b/earlywarning-pom/Document/test/RETAIL/test completamento br.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="111">
   <si>
     <t xml:space="preserve">BR </t>
   </si>
@@ -695,6 +695,108 @@
       </rPr>
       <t>151 = 1</t>
     </r>
+  </si>
+  <si>
+    <t>'0000000000001</t>
+  </si>
+  <si>
+    <t>'0000000000002</t>
+  </si>
+  <si>
+    <t>'0000000000003</t>
+  </si>
+  <si>
+    <t>'0000000000004</t>
+  </si>
+  <si>
+    <t>'0000000000005</t>
+  </si>
+  <si>
+    <t>'0000000000006</t>
+  </si>
+  <si>
+    <t>'0000000000007</t>
+  </si>
+  <si>
+    <t>'0000000000008</t>
+  </si>
+  <si>
+    <t>'0000000000009</t>
+  </si>
+  <si>
+    <t>'0000000000010</t>
+  </si>
+  <si>
+    <t>'0000000000011</t>
+  </si>
+  <si>
+    <t>'0000000000012</t>
+  </si>
+  <si>
+    <t>'0000000000013</t>
+  </si>
+  <si>
+    <t>'0000000000014</t>
+  </si>
+  <si>
+    <t>'0000000000015</t>
+  </si>
+  <si>
+    <t>'0000000000016</t>
+  </si>
+  <si>
+    <t>'0000000000017</t>
+  </si>
+  <si>
+    <t>'0000000000018</t>
+  </si>
+  <si>
+    <t>'0000000000019</t>
+  </si>
+  <si>
+    <t>'0000000000020</t>
+  </si>
+  <si>
+    <t>'0000000000021</t>
+  </si>
+  <si>
+    <t>'0000000000022</t>
+  </si>
+  <si>
+    <t>'0000000000023</t>
+  </si>
+  <si>
+    <t>'0000000000024</t>
+  </si>
+  <si>
+    <t>'0000000000025</t>
+  </si>
+  <si>
+    <t>'0000000000026</t>
+  </si>
+  <si>
+    <t>'0000000000027</t>
+  </si>
+  <si>
+    <t>'0000000000028</t>
+  </si>
+  <si>
+    <t>'0000000000029</t>
+  </si>
+  <si>
+    <t>'0000000000030</t>
+  </si>
+  <si>
+    <t>'0000000000031</t>
+  </si>
+  <si>
+    <t>'0000000000032</t>
+  </si>
+  <si>
+    <t>'0000000000033</t>
+  </si>
+  <si>
+    <t>'0000000000034</t>
   </si>
 </sst>
 </file>
@@ -1194,10 +1296,10 @@
   <dimension ref="A1:BW35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="T14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,8 +1538,8 @@
       <c r="A2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="25">
-        <v>1</v>
+      <c r="B2" s="25" t="s">
+        <v>77</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>2</v>
@@ -1655,8 +1757,8 @@
       <c r="A3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="25">
-        <v>2</v>
+      <c r="B3" s="25" t="s">
+        <v>78</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>2</v>
@@ -1874,8 +1976,8 @@
       <c r="A4" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="25">
-        <v>3</v>
+      <c r="B4" s="25" t="s">
+        <v>79</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>6</v>
@@ -2087,8 +2189,8 @@
       <c r="A5" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="25">
-        <v>4</v>
+      <c r="B5" s="25" t="s">
+        <v>80</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
@@ -2300,8 +2402,8 @@
       <c r="A6" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="25">
-        <v>5</v>
+      <c r="B6" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>7</v>
@@ -2513,8 +2615,8 @@
       <c r="A7" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="25">
-        <v>6</v>
+      <c r="B7" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>8</v>
@@ -2723,8 +2825,8 @@
       <c r="A8" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="25">
-        <v>7</v>
+      <c r="B8" s="25" t="s">
+        <v>83</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>9</v>
@@ -2939,8 +3041,8 @@
       <c r="A9" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="25">
-        <v>8</v>
+      <c r="B9" s="25" t="s">
+        <v>84</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>9</v>
@@ -3155,8 +3257,8 @@
       <c r="A10" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="25">
-        <v>9</v>
+      <c r="B10" s="25" t="s">
+        <v>85</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>9</v>
@@ -3371,8 +3473,8 @@
       <c r="A11" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="25">
-        <v>10</v>
+      <c r="B11" s="25" t="s">
+        <v>86</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>9</v>
@@ -3587,8 +3689,8 @@
       <c r="A12" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="25">
-        <v>11</v>
+      <c r="B12" s="25" t="s">
+        <v>87</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>10</v>
@@ -3803,8 +3905,8 @@
       <c r="A13" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="25">
-        <v>12</v>
+      <c r="B13" s="25" t="s">
+        <v>88</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>10</v>
@@ -4019,8 +4121,8 @@
       <c r="A14" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="25">
-        <v>13</v>
+      <c r="B14" s="25" t="s">
+        <v>89</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>10</v>
@@ -4235,8 +4337,8 @@
       <c r="A15" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="25">
-        <v>14</v>
+      <c r="B15" s="25" t="s">
+        <v>90</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>10</v>
@@ -4451,8 +4553,8 @@
       <c r="A16" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="25">
-        <v>15</v>
+      <c r="B16" s="25" t="s">
+        <v>91</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>11</v>
@@ -4664,8 +4766,8 @@
       <c r="A17" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="25">
-        <v>16</v>
+      <c r="B17" s="25" t="s">
+        <v>92</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>12</v>
@@ -4877,8 +4979,8 @@
       <c r="A18" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="25">
-        <v>17</v>
+      <c r="B18" s="25" t="s">
+        <v>93</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>12</v>
@@ -5090,8 +5192,8 @@
       <c r="A19" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="25">
-        <v>18</v>
+      <c r="B19" s="25" t="s">
+        <v>94</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>13</v>
@@ -5306,8 +5408,8 @@
       <c r="A20" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="25">
-        <v>19</v>
+      <c r="B20" s="25" t="s">
+        <v>95</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>13</v>
@@ -5522,8 +5624,8 @@
       <c r="A21" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="25">
-        <v>20</v>
+      <c r="B21" s="25" t="s">
+        <v>96</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>13</v>
@@ -5738,8 +5840,8 @@
       <c r="A22" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="25">
-        <v>21</v>
+      <c r="B22" s="25" t="s">
+        <v>97</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>14</v>
@@ -5954,8 +6056,8 @@
       <c r="A23" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="25">
-        <v>22</v>
+      <c r="B23" s="25" t="s">
+        <v>98</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>14</v>
@@ -6170,8 +6272,8 @@
       <c r="A24" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="25">
-        <v>23</v>
+      <c r="B24" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>14</v>
@@ -6386,8 +6488,8 @@
       <c r="A25" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="25">
-        <v>24</v>
+      <c r="B25" s="25" t="s">
+        <v>100</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>14</v>
@@ -6602,8 +6704,8 @@
       <c r="A26" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="25">
-        <v>25</v>
+      <c r="B26" s="25" t="s">
+        <v>101</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>15</v>
@@ -6818,8 +6920,8 @@
       <c r="A27" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="25">
-        <v>26</v>
+      <c r="B27" s="25" t="s">
+        <v>102</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>15</v>
@@ -7034,8 +7136,8 @@
       <c r="A28" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="25">
-        <v>27</v>
+      <c r="B28" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>15</v>
@@ -7250,8 +7352,8 @@
       <c r="A29" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="25">
-        <v>28</v>
+      <c r="B29" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>16</v>
@@ -7466,8 +7568,8 @@
       <c r="A30" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="25">
-        <v>29</v>
+      <c r="B30" s="25" t="s">
+        <v>105</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>16</v>
@@ -7682,8 +7784,8 @@
       <c r="A31" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="25">
-        <v>30</v>
+      <c r="B31" s="25" t="s">
+        <v>106</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>16</v>
@@ -7898,8 +8000,8 @@
       <c r="A32" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="25">
-        <v>31</v>
+      <c r="B32" s="25" t="s">
+        <v>107</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>16</v>
@@ -8114,8 +8216,8 @@
       <c r="A33" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="25">
-        <v>32</v>
+      <c r="B33" s="25" t="s">
+        <v>108</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>17</v>
@@ -8330,8 +8432,8 @@
       <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="25">
-        <v>33</v>
+      <c r="B34" s="25" t="s">
+        <v>109</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>17</v>
@@ -8546,8 +8648,8 @@
       <c r="A35" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="25">
-        <v>34</v>
+      <c r="B35" s="25" t="s">
+        <v>110</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>17</v>
